--- a/public/source/pasien.xlsx
+++ b/public/source/pasien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRIVATE\CODE\MigunaApp\public\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D8192D-3536-4ED5-9E7F-69DE28217839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C0F984-AB9B-436E-B77B-18132B8BC116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,10 +80,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,9 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +434,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,31 +445,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
